--- a/LSTM/Data/Service.1.xlsx
+++ b/LSTM/Data/Service.1.xlsx
@@ -17,7 +17,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7miREJaDUtT0QOum8VFnyZ4ZGidZag=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7mjfrPk1yJdmbri2uLdzESnWxGv3bA=="/>
     </ext>
   </extLst>
 </workbook>
@@ -56,10 +56,10 @@
     <t>Population_density</t>
   </si>
   <si>
-    <t>Access_electricity</t>
+    <t>Industry_value_added_current_USD</t>
   </si>
   <si>
-    <t>Industry_value_added_current_USD</t>
+    <t>Access_electricity</t>
   </si>
   <si>
     <t>Employment_in_industry_%_of_total_employment</t>
@@ -296,12 +296,10 @@
       <b/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -337,10 +335,10 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -591,7 +589,17 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col customWidth="1" min="1" max="2" width="8.71"/>
+    <col customWidth="1" min="3" max="3" width="13.29"/>
+    <col customWidth="1" min="4" max="4" width="13.43"/>
+    <col customWidth="1" min="5" max="5" width="13.29"/>
+    <col customWidth="1" min="6" max="6" width="9.57"/>
+    <col customWidth="1" min="7" max="10" width="12.29"/>
+    <col customWidth="1" min="11" max="11" width="13.86"/>
+    <col customWidth="1" min="12" max="12" width="8.71"/>
+    <col customWidth="1" min="13" max="14" width="12.29"/>
+    <col customWidth="1" min="15" max="15" width="15.0"/>
+    <col customWidth="1" min="16" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,7 +663,7 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -663,7 +671,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -731,7 +739,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -799,7 +807,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -867,7 +875,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -935,7 +943,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1003,7 +1011,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1071,7 +1079,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1139,7 +1147,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1207,7 +1215,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1275,7 +1283,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1343,7 +1351,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1411,7 +1419,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1479,7 +1487,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1547,7 +1555,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1615,7 +1623,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1683,7 +1691,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1751,7 +1759,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1819,7 +1827,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1887,7 +1895,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1955,7 +1963,7 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2023,7 +2031,7 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2091,7 +2099,7 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -2159,7 +2167,7 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2227,7 +2235,7 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2295,7 +2303,7 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2363,7 +2371,7 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2431,7 +2439,7 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2499,7 +2507,7 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2567,7 +2575,7 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2635,7 +2643,7 @@
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -2703,7 +2711,7 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2734,10 +2742,10 @@
         <v>2.221352980227276</v>
       </c>
       <c r="K32" s="3">
+        <v>8.961369757599075E10</v>
+      </c>
+      <c r="L32" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>8.961369757599075E10</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>23</v>
@@ -2771,7 +2779,7 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B33" s="3">
@@ -2802,10 +2810,10 @@
         <v>2.249847051013369</v>
       </c>
       <c r="K33" s="3">
+        <v>9.012950317871439E10</v>
+      </c>
+      <c r="L33" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>9.012950317871439E10</v>
       </c>
       <c r="M33" s="3">
         <v>23.5100002288818</v>
@@ -2839,7 +2847,7 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="3">
@@ -2870,10 +2878,10 @@
         <v>2.277312783931895</v>
       </c>
       <c r="K34" s="3">
+        <v>8.745366453895255E10</v>
+      </c>
+      <c r="L34" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L34" s="3">
-        <v>8.745366453895255E10</v>
       </c>
       <c r="M34" s="3">
         <v>23.2900009155273</v>
@@ -2907,7 +2915,7 @@
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="3">
@@ -2938,10 +2946,10 @@
         <v>2.299701912187756</v>
       </c>
       <c r="K35" s="3">
+        <v>8.37211916807195E10</v>
+      </c>
+      <c r="L35" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>8.37211916807195E10</v>
       </c>
       <c r="M35" s="3">
         <v>23.2999992370605</v>
@@ -2975,7 +2983,7 @@
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="3">
@@ -3006,10 +3014,10 @@
         <v>2.324173750048813</v>
       </c>
       <c r="K36" s="3">
+        <v>8.644759598754756E10</v>
+      </c>
+      <c r="L36" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L36" s="3">
-        <v>8.644759598754756E10</v>
       </c>
       <c r="M36" s="3">
         <v>23.1700000762939</v>
@@ -3043,7 +3051,7 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="3">
@@ -3074,10 +3082,10 @@
         <v>2.352420499069289</v>
       </c>
       <c r="K37" s="3">
+        <v>9.723938223938223E10</v>
+      </c>
+      <c r="L37" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L37" s="3">
-        <v>9.723938223938223E10</v>
       </c>
       <c r="M37" s="3">
         <v>22.6299991607666</v>
@@ -3111,7 +3119,7 @@
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="3">
@@ -3142,10 +3150,10 @@
         <v>2.38353097379691</v>
       </c>
       <c r="K38" s="3">
+        <v>1.041881638846737E11</v>
+      </c>
+      <c r="L38" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L38" s="3">
-        <v>1.041881638846737E11</v>
       </c>
       <c r="M38" s="3">
         <v>22.1299991607666</v>
@@ -3179,7 +3187,7 @@
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B39" s="3">
@@ -3210,10 +3218,10 @@
         <v>2.410345859963813</v>
       </c>
       <c r="K39" s="3">
+        <v>1.097683518547504E11</v>
+      </c>
+      <c r="L39" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L39" s="3">
-        <v>1.097683518547504E11</v>
       </c>
       <c r="M39" s="3">
         <v>21.8500003814697</v>
@@ -3247,7 +3255,7 @@
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B40" s="3">
@@ -3278,10 +3286,10 @@
         <v>2.435598713926819</v>
       </c>
       <c r="K40" s="3">
+        <v>1.013653937461846E11</v>
+      </c>
+      <c r="L40" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L40" s="3">
-        <v>1.013653937461846E11</v>
       </c>
       <c r="M40" s="3">
         <v>21.5100002288818</v>
@@ -3315,7 +3323,7 @@
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="3">
@@ -3346,10 +3354,10 @@
         <v>2.463585124246645</v>
       </c>
       <c r="K41" s="3">
+        <v>9.584534402807368E10</v>
+      </c>
+      <c r="L41" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>9.584534402807368E10</v>
       </c>
       <c r="M41" s="3">
         <v>21.1599998474121</v>
@@ -3383,7 +3391,7 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="3">
@@ -3414,10 +3422,10 @@
         <v>2.493133566770368</v>
       </c>
       <c r="K42" s="3">
+        <v>1.021917980280098E11</v>
+      </c>
+      <c r="L42" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>1.021917980280098E11</v>
       </c>
       <c r="M42" s="3">
         <v>21.6200008392334</v>
@@ -3451,7 +3459,7 @@
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B43" s="3">
@@ -3482,10 +3490,10 @@
         <v>2.526977597854809</v>
       </c>
       <c r="K43" s="3">
+        <v>8.973113663196307E10</v>
+      </c>
+      <c r="L43" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>8.973113663196307E10</v>
       </c>
       <c r="M43" s="3">
         <v>20.7399997711182</v>
@@ -3519,7 +3527,7 @@
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B44" s="3">
@@ -3550,10 +3558,10 @@
         <v>2.558009970972235</v>
       </c>
       <c r="K44" s="3">
+        <v>9.344757220594391E10</v>
+      </c>
+      <c r="L44" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>9.344757220594391E10</v>
       </c>
       <c r="M44" s="3">
         <v>20.9200000762939</v>
@@ -3587,7 +3595,7 @@
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B45" s="3">
@@ -3618,10 +3626,10 @@
         <v>2.589771292451479</v>
       </c>
       <c r="K45" s="3">
+        <v>1.124478741991846E11</v>
+      </c>
+      <c r="L45" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1.124478741991846E11</v>
       </c>
       <c r="M45" s="3">
         <v>20.8799991607666</v>
@@ -3655,7 +3663,7 @@
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B46" s="3">
@@ -3686,10 +3694,10 @@
         <v>2.619970581726827</v>
       </c>
       <c r="K46" s="3">
+        <v>1.47111253378859E11</v>
+      </c>
+      <c r="L46" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1.47111253378859E11</v>
       </c>
       <c r="M46" s="3">
         <v>21.2399997711182</v>
@@ -3723,7 +3731,7 @@
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B47" s="3">
@@ -3754,10 +3762,10 @@
         <v>2.654777866003671</v>
       </c>
       <c r="K47" s="3">
+        <v>1.712697338746053E11</v>
+      </c>
+      <c r="L47" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>1.712697338746053E11</v>
       </c>
       <c r="M47" s="3">
         <v>21.1299991607666</v>
@@ -3791,7 +3799,7 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B48" s="3">
@@ -3822,10 +3830,10 @@
         <v>2.694232196087109</v>
       </c>
       <c r="K48" s="3">
+        <v>1.917033542976939E11</v>
+      </c>
+      <c r="L48" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1.917033542976939E11</v>
       </c>
       <c r="M48" s="3">
         <v>21.2800006866455</v>
@@ -3859,7 +3867,7 @@
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B49" s="3">
@@ -3890,10 +3898,10 @@
         <v>2.711115160824233</v>
       </c>
       <c r="K49" s="3">
+        <v>2.194480646934129E11</v>
+      </c>
+      <c r="L49" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>2.194480646934129E11</v>
       </c>
       <c r="M49" s="3">
         <v>21.1800003051758</v>
@@ -3927,7 +3935,7 @@
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B50" s="3">
@@ -3958,10 +3966,10 @@
         <v>2.765994558921157</v>
       </c>
       <c r="K50" s="3">
+        <v>2.704010743061773E11</v>
+      </c>
+      <c r="L50" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L50" s="3">
-        <v>2.704010743061773E11</v>
       </c>
       <c r="M50" s="3">
         <v>21.6200008392334</v>
@@ -3995,7 +4003,7 @@
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B51" s="3">
@@ -4026,10 +4034,10 @@
         <v>2.823594496439868</v>
       </c>
       <c r="K51" s="3">
+        <v>2.511772934766603E11</v>
+      </c>
+      <c r="L51" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L51" s="3">
-        <v>2.511772934766603E11</v>
       </c>
       <c r="M51" s="3">
         <v>21.1399993896484</v>
@@ -4063,7 +4071,7 @@
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B52" s="3">
@@ -4094,10 +4102,10 @@
         <v>2.867858584017807</v>
       </c>
       <c r="K52" s="3">
+        <v>2.891993305734167E11</v>
+      </c>
+      <c r="L52" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>2.891993305734167E11</v>
       </c>
       <c r="M52" s="3">
         <v>20.9799995422363</v>
@@ -4131,7 +4139,7 @@
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B53" s="3">
@@ -4162,10 +4170,10 @@
         <v>2.907986410319826</v>
       </c>
       <c r="K53" s="3">
+        <v>3.708922409543528E11</v>
+      </c>
+      <c r="L53" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L53" s="3">
-        <v>3.708922409543528E11</v>
       </c>
       <c r="M53" s="3">
         <v>20.8299999237061</v>
@@ -4199,7 +4207,7 @@
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B54" s="3">
@@ -4230,10 +4238,10 @@
         <v>2.959200369680955</v>
       </c>
       <c r="K54" s="3">
+        <v>4.081418849247267E11</v>
+      </c>
+      <c r="L54" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>4.081418849247267E11</v>
       </c>
       <c r="M54" s="3">
         <v>20.7099990844727</v>
@@ -4267,7 +4275,7 @@
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B55" s="3">
@@ -4298,10 +4306,10 @@
         <v>3.010573526157531</v>
       </c>
       <c r="K55" s="3">
+        <v>3.972093977634144E11</v>
+      </c>
+      <c r="L55" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L55" s="3">
-        <v>3.972093977634144E11</v>
       </c>
       <c r="M55" s="3">
         <v>20.4500007629395</v>
@@ -4335,7 +4343,7 @@
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B56" s="3">
@@ -4366,10 +4374,10 @@
         <v>3.055814795048358</v>
       </c>
       <c r="K56" s="3">
+        <v>3.753851097034793E11</v>
+      </c>
+      <c r="L56" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L56" s="3">
-        <v>3.753851097034793E11</v>
       </c>
       <c r="M56" s="3">
         <v>20.2900009155273</v>
@@ -4403,7 +4411,7 @@
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B57" s="3">
@@ -4434,10 +4442,10 @@
         <v>3.100112596488031</v>
       </c>
       <c r="K57" s="3">
+        <v>3.2001414427157E11</v>
+      </c>
+      <c r="L57" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>3.2001414427157E11</v>
       </c>
       <c r="M57" s="3">
         <v>19.3899993896484</v>
@@ -4471,7 +4479,7 @@
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B58" s="3">
@@ -4502,10 +4510,10 @@
         <v>3.144935530588844</v>
       </c>
       <c r="K58" s="3">
+        <v>2.694227689620032E11</v>
+      </c>
+      <c r="L58" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>2.694227689620032E11</v>
       </c>
       <c r="M58" s="3">
         <v>19.3600006103516</v>
@@ -4539,7 +4547,7 @@
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B59" s="3">
@@ -4570,10 +4578,10 @@
         <v>3.19836141871706</v>
       </c>
       <c r="K59" s="3">
+        <v>3.113817029941926E11</v>
+      </c>
+      <c r="L59" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>3.113817029941926E11</v>
       </c>
       <c r="M59" s="3">
         <v>19.4300003051758</v>
@@ -4607,7 +4615,7 @@
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B60" s="3">
@@ -4638,10 +4646,10 @@
         <v>3.247870910372048</v>
       </c>
       <c r="K60" s="3">
+        <v>3.448461359584528E11</v>
+      </c>
+      <c r="L60" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L60" s="3">
-        <v>3.448461359584528E11</v>
       </c>
       <c r="M60" s="3">
         <v>19.8899993896484</v>
@@ -4675,7 +4683,7 @@
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B61" s="3">
@@ -4706,10 +4714,10 @@
         <v>3.297670182864839</v>
       </c>
       <c r="K61" s="3">
+        <v>3.525532827921613E11</v>
+      </c>
+      <c r="L61" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>3.525532827921613E11</v>
       </c>
       <c r="M61" s="3">
         <v>19.0599994659424</v>
@@ -4743,7 +4751,7 @@
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -4774,10 +4782,10 @@
         <v>3.340249635336362</v>
       </c>
       <c r="K62" s="3">
+        <v>3.380949188899316E11</v>
+      </c>
+      <c r="L62" s="3">
         <v>100.0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>3.380949188899316E11</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>23</v>
@@ -4811,7 +4819,7 @@
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -4841,11 +4849,11 @@
       <c r="J63" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K63" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L63" s="3">
+      <c r="K63" s="3">
         <v>3.933099485036196E11</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>23</v>
@@ -5837,75 +5845,75 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -5973,7 +5981,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -6041,7 +6049,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -6109,7 +6117,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -6177,7 +6185,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -6245,7 +6253,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -6313,7 +6321,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -6381,7 +6389,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -6449,7 +6457,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -6517,7 +6525,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -6585,7 +6593,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -6653,7 +6661,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -6721,7 +6729,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -6789,7 +6797,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -6857,7 +6865,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -6925,7 +6933,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -6993,7 +7001,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -7061,7 +7069,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -7129,7 +7137,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -7197,7 +7205,7 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -7265,7 +7273,7 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -7333,7 +7341,7 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -7401,7 +7409,7 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -7469,7 +7477,7 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -7537,7 +7545,7 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -7605,7 +7613,7 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -7673,7 +7681,7 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -7741,7 +7749,7 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -7809,7 +7817,7 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -7877,7 +7885,7 @@
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -7945,7 +7953,7 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -8013,7 +8021,7 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B33" s="3">
@@ -8081,7 +8089,7 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="3">
@@ -8149,7 +8157,7 @@
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="3">
@@ -8217,7 +8225,7 @@
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="3">
@@ -8285,7 +8293,7 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="3">
@@ -8353,7 +8361,7 @@
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="3">
@@ -8421,7 +8429,7 @@
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B39" s="3">
@@ -8489,7 +8497,7 @@
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B40" s="3">
@@ -8557,7 +8565,7 @@
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="3">
@@ -8625,7 +8633,7 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="3">
@@ -8693,7 +8701,7 @@
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B43" s="3">
@@ -8761,7 +8769,7 @@
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B44" s="3">
@@ -8829,7 +8837,7 @@
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B45" s="3">
@@ -8897,7 +8905,7 @@
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B46" s="3">
@@ -8965,7 +8973,7 @@
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B47" s="3">
@@ -9033,7 +9041,7 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B48" s="3">
@@ -9101,7 +9109,7 @@
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B49" s="3">
@@ -9169,7 +9177,7 @@
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B50" s="3">
@@ -9237,7 +9245,7 @@
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B51" s="3">
@@ -9305,7 +9313,7 @@
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B52" s="3">
@@ -9373,7 +9381,7 @@
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B53" s="3">
@@ -9441,7 +9449,7 @@
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B54" s="3">
@@ -9509,7 +9517,7 @@
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B55" s="3">
@@ -9577,7 +9585,7 @@
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B56" s="3">
@@ -9645,7 +9653,7 @@
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B57" s="3">
@@ -9713,7 +9721,7 @@
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B58" s="3">
@@ -9781,7 +9789,7 @@
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B59" s="3">
@@ -9849,7 +9857,7 @@
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B60" s="3">
@@ -9917,7 +9925,7 @@
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B61" s="3">
@@ -9985,7 +9993,7 @@
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -10053,7 +10061,7 @@
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -11079,75 +11087,75 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -11215,7 +11223,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -11283,7 +11291,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -11351,7 +11359,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -11419,7 +11427,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -11487,7 +11495,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -11555,7 +11563,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -11623,7 +11631,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -11691,7 +11699,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -11759,7 +11767,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -11827,7 +11835,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -11895,7 +11903,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -11963,7 +11971,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -12031,7 +12039,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -12099,7 +12107,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -12167,7 +12175,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -12235,7 +12243,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -12303,7 +12311,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -12371,7 +12379,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -12439,7 +12447,7 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -12507,7 +12515,7 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -12575,7 +12583,7 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -12643,7 +12651,7 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -12711,7 +12719,7 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -12779,7 +12787,7 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -12847,7 +12855,7 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -12915,7 +12923,7 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -12983,7 +12991,7 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -13051,7 +13059,7 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -13119,7 +13127,7 @@
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -13187,7 +13195,7 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -13255,7 +13263,7 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B33" s="3">
@@ -13323,7 +13331,7 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="3">
@@ -13391,7 +13399,7 @@
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="3">
@@ -13459,7 +13467,7 @@
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="3">
@@ -13527,7 +13535,7 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="3">
@@ -13595,7 +13603,7 @@
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="3">
@@ -13663,7 +13671,7 @@
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B39" s="3">
@@ -13731,7 +13739,7 @@
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B40" s="3">
@@ -13799,7 +13807,7 @@
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="3">
@@ -13867,7 +13875,7 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="3">
@@ -13935,7 +13943,7 @@
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B43" s="3">
@@ -14003,7 +14011,7 @@
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B44" s="3">
@@ -14071,7 +14079,7 @@
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B45" s="3">
@@ -14139,7 +14147,7 @@
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B46" s="3">
@@ -14207,7 +14215,7 @@
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B47" s="3">
@@ -14275,7 +14283,7 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B48" s="3">
@@ -14343,7 +14351,7 @@
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B49" s="3">
@@ -14411,7 +14419,7 @@
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B50" s="3">
@@ -14479,7 +14487,7 @@
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B51" s="3">
@@ -14547,7 +14555,7 @@
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B52" s="3">
@@ -14615,7 +14623,7 @@
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B53" s="3">
@@ -14683,7 +14691,7 @@
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B54" s="3">
@@ -14751,7 +14759,7 @@
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B55" s="3">
@@ -14819,7 +14827,7 @@
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B56" s="3">
@@ -14887,7 +14895,7 @@
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B57" s="3">
@@ -14955,7 +14963,7 @@
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B58" s="3">
@@ -15023,7 +15031,7 @@
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B59" s="3">
@@ -15091,7 +15099,7 @@
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B60" s="3">
@@ -15159,7 +15167,7 @@
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B61" s="3">
@@ -15227,7 +15235,7 @@
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -15295,7 +15303,7 @@
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -16321,75 +16329,75 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -16457,7 +16465,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -16525,7 +16533,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -16593,7 +16601,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -16661,7 +16669,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -16729,7 +16737,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -16797,7 +16805,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -16865,7 +16873,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -16933,7 +16941,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -17001,7 +17009,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -17069,7 +17077,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -17137,7 +17145,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -17205,7 +17213,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -17273,7 +17281,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -17341,7 +17349,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -17409,7 +17417,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -17477,7 +17485,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -17545,7 +17553,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -17613,7 +17621,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -17681,7 +17689,7 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -17749,7 +17757,7 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -17817,7 +17825,7 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -17885,7 +17893,7 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -17953,7 +17961,7 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -18021,7 +18029,7 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -18089,7 +18097,7 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -18157,7 +18165,7 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -18225,7 +18233,7 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -18293,7 +18301,7 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -18361,7 +18369,7 @@
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -18429,7 +18437,7 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -18497,7 +18505,7 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B33" s="3">
@@ -18565,7 +18573,7 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="3">
@@ -18633,7 +18641,7 @@
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="3">
@@ -18701,7 +18709,7 @@
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="3">
@@ -18769,7 +18777,7 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="3">
@@ -18837,7 +18845,7 @@
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="3">
@@ -18905,7 +18913,7 @@
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B39" s="3">
@@ -18973,7 +18981,7 @@
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B40" s="3">
@@ -19041,7 +19049,7 @@
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="3">
@@ -19109,7 +19117,7 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="3">
@@ -19177,7 +19185,7 @@
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B43" s="3">
@@ -19245,7 +19253,7 @@
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B44" s="3">
@@ -19313,7 +19321,7 @@
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B45" s="3">
@@ -19381,7 +19389,7 @@
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B46" s="3">
@@ -19449,7 +19457,7 @@
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B47" s="3">
@@ -19517,7 +19525,7 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B48" s="3">
@@ -19585,7 +19593,7 @@
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B49" s="3">
@@ -19653,7 +19661,7 @@
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B50" s="3">
@@ -19721,7 +19729,7 @@
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B51" s="3">
@@ -19789,7 +19797,7 @@
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B52" s="3">
@@ -19857,7 +19865,7 @@
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B53" s="3">
@@ -19925,7 +19933,7 @@
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B54" s="3">
@@ -19993,7 +20001,7 @@
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B55" s="3">
@@ -20061,7 +20069,7 @@
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B56" s="3">
@@ -20129,7 +20137,7 @@
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B57" s="3">
@@ -20197,7 +20205,7 @@
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B58" s="3">
@@ -20265,7 +20273,7 @@
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B59" s="3">
@@ -20333,7 +20341,7 @@
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B60" s="3">
@@ -20401,7 +20409,7 @@
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B61" s="3">
@@ -20469,7 +20477,7 @@
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -20537,7 +20545,7 @@
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -21563,75 +21571,75 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -21699,7 +21707,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -21767,7 +21775,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -21835,7 +21843,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -21903,7 +21911,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -21971,7 +21979,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -22039,7 +22047,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -22107,7 +22115,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -22175,7 +22183,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -22243,7 +22251,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -22311,7 +22319,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -22379,7 +22387,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -22447,7 +22455,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -22515,7 +22523,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -22583,7 +22591,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -22651,7 +22659,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -22719,7 +22727,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -22787,7 +22795,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -22855,7 +22863,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -22923,7 +22931,7 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -22991,7 +22999,7 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -23059,7 +23067,7 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -23127,7 +23135,7 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -23195,7 +23203,7 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -23263,7 +23271,7 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -23331,7 +23339,7 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -23399,7 +23407,7 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -23467,7 +23475,7 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -23535,7 +23543,7 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -23603,7 +23611,7 @@
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -23671,7 +23679,7 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -23739,7 +23747,7 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B33" s="3">
@@ -23807,7 +23815,7 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="3">
@@ -23875,7 +23883,7 @@
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="3">
@@ -23943,7 +23951,7 @@
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="3">
@@ -24011,7 +24019,7 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="3">
@@ -24079,7 +24087,7 @@
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="3">
@@ -24147,7 +24155,7 @@
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B39" s="3">
@@ -24215,7 +24223,7 @@
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B40" s="3">
@@ -24283,7 +24291,7 @@
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="3">
@@ -24351,7 +24359,7 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="3">
@@ -24419,7 +24427,7 @@
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B43" s="3">
@@ -24487,7 +24495,7 @@
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B44" s="3">
@@ -24555,7 +24563,7 @@
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B45" s="3">
@@ -24623,7 +24631,7 @@
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B46" s="3">
@@ -24691,7 +24699,7 @@
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B47" s="3">
@@ -24759,7 +24767,7 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B48" s="3">
@@ -24827,7 +24835,7 @@
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B49" s="3">
@@ -24895,7 +24903,7 @@
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B50" s="3">
@@ -24963,7 +24971,7 @@
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B51" s="3">
@@ -25031,7 +25039,7 @@
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B52" s="3">
@@ -25099,7 +25107,7 @@
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B53" s="3">
@@ -25167,7 +25175,7 @@
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B54" s="3">
@@ -25235,7 +25243,7 @@
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B55" s="3">
@@ -25303,7 +25311,7 @@
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B56" s="3">
@@ -25371,7 +25379,7 @@
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B57" s="3">
@@ -25439,7 +25447,7 @@
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B58" s="3">
@@ -25507,7 +25515,7 @@
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B59" s="3">
@@ -25575,7 +25583,7 @@
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B60" s="3">
@@ -25643,7 +25651,7 @@
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B61" s="3">
@@ -25711,7 +25719,7 @@
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -25779,7 +25787,7 @@
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -26805,75 +26813,75 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -26941,7 +26949,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -27009,7 +27017,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -27077,7 +27085,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -27145,7 +27153,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -27213,7 +27221,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -27281,7 +27289,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -27349,7 +27357,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -27417,7 +27425,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -27485,7 +27493,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -27553,7 +27561,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -27621,7 +27629,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -27689,7 +27697,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -27757,7 +27765,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -27825,7 +27833,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -27893,7 +27901,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -27961,7 +27969,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -28029,7 +28037,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -28097,7 +28105,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -28165,7 +28173,7 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -28233,7 +28241,7 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -28301,7 +28309,7 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -28369,7 +28377,7 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -28437,7 +28445,7 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -28505,7 +28513,7 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -28573,7 +28581,7 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -28641,7 +28649,7 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -28709,7 +28717,7 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -28777,7 +28785,7 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -28845,7 +28853,7 @@
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -28913,7 +28921,7 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -28981,7 +28989,7 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B33" s="3">
@@ -29049,7 +29057,7 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="3">
@@ -29117,7 +29125,7 @@
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="3">
@@ -29185,7 +29193,7 @@
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="3">
@@ -29253,7 +29261,7 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="3">
@@ -29321,7 +29329,7 @@
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="3">
@@ -29389,7 +29397,7 @@
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B39" s="3">
@@ -29457,7 +29465,7 @@
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B40" s="3">
@@ -29525,7 +29533,7 @@
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="3">
@@ -29593,7 +29601,7 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="3">
@@ -29661,7 +29669,7 @@
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B43" s="3">
@@ -29729,7 +29737,7 @@
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B44" s="3">
@@ -29797,7 +29805,7 @@
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B45" s="3">
@@ -29865,7 +29873,7 @@
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B46" s="3">
@@ -29933,7 +29941,7 @@
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B47" s="3">
@@ -30001,7 +30009,7 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B48" s="3">
@@ -30069,7 +30077,7 @@
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B49" s="3">
@@ -30137,7 +30145,7 @@
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B50" s="3">
@@ -30205,7 +30213,7 @@
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B51" s="3">
@@ -30273,7 +30281,7 @@
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B52" s="3">
@@ -30341,7 +30349,7 @@
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B53" s="3">
@@ -30409,7 +30417,7 @@
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B54" s="3">
@@ -30477,7 +30485,7 @@
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B55" s="3">
@@ -30545,7 +30553,7 @@
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B56" s="3">
@@ -30613,7 +30621,7 @@
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B57" s="3">
@@ -30681,7 +30689,7 @@
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B58" s="3">
@@ -30749,7 +30757,7 @@
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B59" s="3">
@@ -30817,7 +30825,7 @@
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B60" s="3">
@@ -30885,7 +30893,7 @@
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B61" s="3">
@@ -30953,7 +30961,7 @@
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -31021,7 +31029,7 @@
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -32047,75 +32055,75 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -32183,7 +32191,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -32251,7 +32259,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -32319,7 +32327,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -32387,7 +32395,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -32455,7 +32463,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -32523,7 +32531,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -32591,7 +32599,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -32659,7 +32667,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -32727,7 +32735,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -32795,7 +32803,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -32863,7 +32871,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -32931,7 +32939,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -32999,7 +33007,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -33067,7 +33075,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -33135,7 +33143,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -33203,7 +33211,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -33271,7 +33279,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -33339,7 +33347,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -33407,7 +33415,7 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -33475,7 +33483,7 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -33543,7 +33551,7 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -33611,7 +33619,7 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -33679,7 +33687,7 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -33747,7 +33755,7 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -33815,7 +33823,7 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -33883,7 +33891,7 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -33951,7 +33959,7 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -34019,7 +34027,7 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -34087,7 +34095,7 @@
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -34155,7 +34163,7 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -34223,7 +34231,7 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B33" s="3">
@@ -34291,7 +34299,7 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="3">
@@ -34359,7 +34367,7 @@
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="3">
@@ -34427,7 +34435,7 @@
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="3">
@@ -34495,7 +34503,7 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="3">
@@ -34563,7 +34571,7 @@
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="3">
@@ -34631,7 +34639,7 @@
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B39" s="3">
@@ -34699,7 +34707,7 @@
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B40" s="3">
@@ -34767,7 +34775,7 @@
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="3">
@@ -34835,7 +34843,7 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="3">
@@ -34903,7 +34911,7 @@
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B43" s="3">
@@ -34971,7 +34979,7 @@
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B44" s="3">
@@ -35039,7 +35047,7 @@
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B45" s="3">
@@ -35107,7 +35115,7 @@
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B46" s="3">
@@ -35175,7 +35183,7 @@
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B47" s="3">
@@ -35243,7 +35251,7 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B48" s="3">
@@ -35311,7 +35319,7 @@
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B49" s="3">
@@ -35379,7 +35387,7 @@
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B50" s="3">
@@ -35447,7 +35455,7 @@
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B51" s="3">
@@ -35515,7 +35523,7 @@
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B52" s="3">
@@ -35583,7 +35591,7 @@
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B53" s="3">
@@ -35651,7 +35659,7 @@
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B54" s="3">
@@ -35719,7 +35727,7 @@
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B55" s="3">
@@ -35787,7 +35795,7 @@
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B56" s="3">
@@ -35855,7 +35863,7 @@
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B57" s="3">
@@ -35923,7 +35931,7 @@
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B58" s="3">
@@ -35991,7 +35999,7 @@
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B59" s="3">
@@ -36059,7 +36067,7 @@
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B60" s="3">
@@ -36127,7 +36135,7 @@
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B61" s="3">
@@ -36195,7 +36203,7 @@
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -36263,7 +36271,7 @@
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -37289,75 +37297,75 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -37425,7 +37433,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -37493,7 +37501,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -37561,7 +37569,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -37629,7 +37637,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -37697,7 +37705,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -37765,7 +37773,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -37833,7 +37841,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -37901,7 +37909,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -37969,7 +37977,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -38037,7 +38045,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -38105,7 +38113,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -38173,7 +38181,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -38241,7 +38249,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -38309,7 +38317,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -38377,7 +38385,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -38445,7 +38453,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -38513,7 +38521,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -38581,7 +38589,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -38649,7 +38657,7 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -38717,7 +38725,7 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -38785,7 +38793,7 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -38853,7 +38861,7 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -38921,7 +38929,7 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -38989,7 +38997,7 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -39057,7 +39065,7 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -39125,7 +39133,7 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -39193,7 +39201,7 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -39261,7 +39269,7 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -39329,7 +39337,7 @@
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -39397,7 +39405,7 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -39465,7 +39473,7 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B33" s="3">
@@ -39533,7 +39541,7 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="3">
@@ -39601,7 +39609,7 @@
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="3">
@@ -39669,7 +39677,7 @@
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="3">
@@ -39737,7 +39745,7 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="3">
@@ -39805,7 +39813,7 @@
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="3">
@@ -39873,7 +39881,7 @@
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B39" s="3">
@@ -39941,7 +39949,7 @@
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B40" s="3">
@@ -40009,7 +40017,7 @@
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="3">
@@ -40077,7 +40085,7 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="3">
@@ -40145,7 +40153,7 @@
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B43" s="3">
@@ -40213,7 +40221,7 @@
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B44" s="3">
@@ -40281,7 +40289,7 @@
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B45" s="3">
@@ -40349,7 +40357,7 @@
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B46" s="3">
@@ -40417,7 +40425,7 @@
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B47" s="3">
@@ -40485,7 +40493,7 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B48" s="3">
@@ -40553,7 +40561,7 @@
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B49" s="3">
@@ -40621,7 +40629,7 @@
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B50" s="3">
@@ -40689,7 +40697,7 @@
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B51" s="3">
@@ -40757,7 +40765,7 @@
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B52" s="3">
@@ -40825,7 +40833,7 @@
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B53" s="3">
@@ -40893,7 +40901,7 @@
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B54" s="3">
@@ -40961,7 +40969,7 @@
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B55" s="3">
@@ -41029,7 +41037,7 @@
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B56" s="3">
@@ -41097,7 +41105,7 @@
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B57" s="3">
@@ -41165,7 +41173,7 @@
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B58" s="3">
@@ -41233,7 +41241,7 @@
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B59" s="3">
@@ -41301,7 +41309,7 @@
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B60" s="3">
@@ -41369,7 +41377,7 @@
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B61" s="3">
@@ -41437,7 +41445,7 @@
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -41505,7 +41513,7 @@
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -42531,75 +42539,75 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -42667,7 +42675,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -42735,7 +42743,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -42803,7 +42811,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -42871,7 +42879,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -42939,7 +42947,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -43007,7 +43015,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -43075,7 +43083,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -43143,7 +43151,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -43211,7 +43219,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -43279,7 +43287,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -43347,7 +43355,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -43415,7 +43423,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -43483,7 +43491,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -43551,7 +43559,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -43619,7 +43627,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -43687,7 +43695,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -43755,7 +43763,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -43823,7 +43831,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -43891,7 +43899,7 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -43959,7 +43967,7 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -44027,7 +44035,7 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -44095,7 +44103,7 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -44163,7 +44171,7 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -44231,7 +44239,7 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -44299,7 +44307,7 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -44367,7 +44375,7 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -44435,7 +44443,7 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -44503,7 +44511,7 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -44571,7 +44579,7 @@
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -44639,7 +44647,7 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -44707,7 +44715,7 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B33" s="3">
@@ -44775,7 +44783,7 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="3">
@@ -44843,7 +44851,7 @@
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="3">
@@ -44911,7 +44919,7 @@
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="3">
@@ -44979,7 +44987,7 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="3">
@@ -45047,7 +45055,7 @@
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="3">
@@ -45115,7 +45123,7 @@
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B39" s="3">
@@ -45183,7 +45191,7 @@
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B40" s="3">
@@ -45251,7 +45259,7 @@
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="3">
@@ -45319,7 +45327,7 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="3">
@@ -45387,7 +45395,7 @@
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B43" s="3">
@@ -45455,7 +45463,7 @@
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B44" s="3">
@@ -45523,7 +45531,7 @@
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B45" s="3">
@@ -45591,7 +45599,7 @@
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B46" s="3">
@@ -45659,7 +45667,7 @@
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B47" s="3">
@@ -45727,7 +45735,7 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B48" s="3">
@@ -45795,7 +45803,7 @@
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B49" s="3">
@@ -45863,7 +45871,7 @@
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B50" s="3">
@@ -45931,7 +45939,7 @@
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B51" s="3">
@@ -45999,7 +46007,7 @@
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B52" s="3">
@@ -46067,7 +46075,7 @@
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B53" s="3">
@@ -46135,7 +46143,7 @@
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B54" s="3">
@@ -46203,7 +46211,7 @@
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B55" s="3">
@@ -46271,7 +46279,7 @@
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B56" s="3">
@@ -46339,7 +46347,7 @@
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B57" s="3">
@@ -46407,7 +46415,7 @@
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B58" s="3">
@@ -46475,7 +46483,7 @@
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B59" s="3">
@@ -46543,7 +46551,7 @@
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B60" s="3">
@@ -46611,7 +46619,7 @@
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B61" s="3">
@@ -46679,7 +46687,7 @@
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -46747,7 +46755,7 @@
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B63" s="3" t="s">
